--- a/data/2018_Statistical_Annex_Table_3.xlsx
+++ b/data/2018_Statistical_Annex_Table_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mari9\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming Gao\Desktop\Ming Gao\MS Staitstics\STAT 697\team-3_project_repo\team-3_project_repo\team-3_project_repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5872AAF-695A-4C21-97B1-128A980F3631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3756DC-EE13-44C7-A26E-199F60C4A392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,9 +604,6 @@
     <t>Inequality in life expectancy</t>
   </si>
   <si>
-    <t>Inequality-adjusted life expectancy index</t>
-  </si>
-  <si>
     <t>Inequality in education</t>
   </si>
   <si>
@@ -638,6 +635,9 @@
   </si>
   <si>
     <t>Income Inequality Gini Coeff</t>
+  </si>
+  <si>
+    <t>Inequality_adjusted_llife_expectancy_index</t>
   </si>
 </sst>
 </file>
@@ -1037,13 +1037,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="3"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -1054,16 +1058,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>192</v>
@@ -1071,29 +1075,29 @@
       <c r="H1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="N1" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">

--- a/data/2018_Statistical_Annex_Table_3.xlsx
+++ b/data/2018_Statistical_Annex_Table_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming Gao\Desktop\Ming Gao\MS Staitstics\STAT 697\team-3_project_repo\team-3_project_repo\team-3_project_repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3756DC-EE13-44C7-A26E-199F60C4A392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE861D3-DC08-4F19-B3F1-B08603621E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
     <t>Income Inequality Gini Coeff</t>
   </si>
   <si>
-    <t>Inequality_adjusted_llife_expectancy_index</t>
+    <t>adjusted_life_index</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:P190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1050,7 +1050,7 @@
     <col min="10" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
